--- a/public/uploads/teacher.xlsx
+++ b/public/uploads/teacher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\schoolZoid offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\sz offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C0F90C-9D97-4A7E-81BC-DADC4DA3E12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA309AB2-B889-438F-8F28-373F21DBB537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
-  <si>
-    <t>teacherId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+  <si>
+    <t>uid</t>
   </si>
   <si>
     <t>name</t>
@@ -36,122 +36,83 @@
     <t>surname</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
     <t>dob</t>
   </si>
   <si>
-    <t>mobile</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>dept</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>colquhoun</t>
+  </si>
+  <si>
+    <t>bulemusasa@gmail.com</t>
+  </si>
+  <si>
+    <t>15/11/1991</t>
+  </si>
+  <si>
+    <t>st lawrence</t>
+  </si>
+  <si>
+    <t>cynthia</t>
+  </si>
+  <si>
     <t>hitchcok</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>cynthia</t>
-  </si>
-  <si>
-    <t>alice</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>15/11/1991</t>
-  </si>
-  <si>
     <t>15/11/1994</t>
   </si>
   <si>
-    <t>15/11/1987</t>
-  </si>
-  <si>
-    <t>TC311</t>
-  </si>
-  <si>
-    <t>TC312</t>
-  </si>
-  <si>
-    <t>TC313</t>
-  </si>
-  <si>
-    <t>TC314</t>
-  </si>
-  <si>
-    <t>oslo</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>colquhoun</t>
-  </si>
-  <si>
-    <t>iva</t>
-  </si>
-  <si>
-    <t>irina</t>
-  </si>
-  <si>
-    <t>st lawrence</t>
-  </si>
-  <si>
     <t>cairns</t>
   </si>
   <si>
-    <t>churchill</t>
-  </si>
-  <si>
-    <t>townsville</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>ivacol@gmail.com</t>
-  </si>
-  <si>
-    <t>cynth@gmail.com</t>
-  </si>
-  <si>
-    <t>irina@gmail.com</t>
-  </si>
-  <si>
-    <t>junali@gmail.com</t>
-  </si>
-  <si>
-    <t>dept</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Arts</t>
+    <t>EK70009</t>
+  </si>
+  <si>
+    <t>EK70010</t>
   </si>
   <si>
     <t>Sciences</t>
+  </si>
+  <si>
+    <t>kratosmusasa94@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,12 +153,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,192 +440,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>7774888</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>8477004</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <v>7774888</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
+      <c r="K3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>8477004</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <v>7778899</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>8377666</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8296CE00-6D9B-49E2-AF0D-C6E4CD392BAD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{38E7385D-4B60-4A98-AF73-E268A6F74B79}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{6472A941-B737-40FC-BEAF-C6A4E56ED1E2}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{F56AC24A-6EC2-4C11-AB86-0520A093E53D}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{CE923CF3-4BAA-48B7-AD56-C490794A99A4}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B2928A35-DA6D-4418-8CB4-5939FB50C5FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/uploads/teacher.xlsx
+++ b/public/uploads/teacher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\sz offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\schoolzoid testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA309AB2-B889-438F-8F28-373F21DBB537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1C7BC1-2771-4215-B1F6-BF96E8BA63C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>uid</t>
   </si>
@@ -72,9 +72,6 @@
     <t>colquhoun</t>
   </si>
   <si>
-    <t>bulemusasa@gmail.com</t>
-  </si>
-  <si>
     <t>15/11/1991</t>
   </si>
   <si>
@@ -93,16 +90,28 @@
     <t>cairns</t>
   </si>
   <si>
-    <t>EK70009</t>
-  </si>
-  <si>
-    <t>EK70010</t>
-  </si>
-  <si>
     <t>Sciences</t>
   </si>
   <si>
-    <t>kratosmusasa94@gmail.com</t>
+    <t>WP3003</t>
+  </si>
+  <si>
+    <t>WP3004</t>
+  </si>
+  <si>
+    <t>ivacolquhoun@gmail.com</t>
+  </si>
+  <si>
+    <t>cynthiahitchcok@gmail.com</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>team3.jpg</t>
+  </si>
+  <si>
+    <t>team4.jpg</t>
   </si>
 </sst>
 </file>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,9 +464,10 @@
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -491,8 +501,11 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -506,13 +519,13 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -521,13 +534,16 @@
         <v>7774888</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -535,10 +551,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -547,22 +563,25 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>8477004</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
